--- a/IT_space.xlsx
+++ b/IT_space.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="地图" sheetId="1" r:id="rId1"/>
     <sheet name="详情" sheetId="5" r:id="rId2"/>
     <sheet name="网站" sheetId="2" r:id="rId3"/>
     <sheet name="互联网架构师" sheetId="4" r:id="rId4"/>
+    <sheet name="公司" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">详情!$A$1:$G$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">详情!$A$1:$G$101</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="307">
   <si>
     <t>服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1215,6 +1216,41 @@
   <si>
     <t>https://github.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>react.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mahout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天行者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川斯盖克科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skyker  -   Skywalker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯盖克</t>
   </si>
 </sst>
 </file>
@@ -1801,7 +1837,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2526,6 +2562,21 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
     <row r="42" spans="1:9" ht="12.75">
       <c r="B42" s="19"/>
     </row>
@@ -2538,11 +2589,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2675,986 +2726,992 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27">
-      <c r="A14" s="7" t="s">
+    <row r="15" spans="1:7" ht="27">
+      <c r="A15" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="9" t="s">
+    <row r="16" spans="1:7">
+      <c r="B16" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="B17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>271</v>
+        <v>77</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="B18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>212</v>
+        <v>20</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="B19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C22" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="B22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="B24" s="16" t="s">
+    <row r="25" spans="1:4">
+      <c r="B25" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="B25" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" t="s">
+      <c r="C27" s="21"/>
+      <c r="D27" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="7" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>271</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>272</v>
+        <v>23</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="7" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C32" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="B33" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="B34" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C35" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="12"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B37" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="12"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="B37" s="12" t="s">
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" s="12" t="s">
         <v>141</v>
-      </c>
-      <c r="C37" s="12"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>227</v>
       </c>
       <c r="C38" s="12"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B40" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="B40" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>272</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="B41" s="7" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>272</v>
       </c>
       <c r="D41" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="B42" s="14" t="s">
+    <row r="43" spans="1:4">
+      <c r="B43" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="14"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="7" t="s">
+      <c r="C43" s="14"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C44" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="B44" s="15" t="s">
+    <row r="45" spans="1:4">
+      <c r="B45" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="15"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="7" t="s">
+      <c r="C45" s="15"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C46" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="B46" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C48" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D48" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="B48" s="14" t="s">
+    <row r="49" spans="1:5">
+      <c r="B49" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C48" s="14"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="7" t="s">
+      <c r="C49" s="14"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B50" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="B50" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>233</v>
+      <c r="E50" s="7" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="B51" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D52" s="7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="7" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="40.5">
-      <c r="B53" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="40.5">
+      <c r="B54" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="B54" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="B55" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>271</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="B56" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>271</v>
       </c>
       <c r="D56" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="B57" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="12"/>
     </row>
     <row r="58" spans="1:5">
       <c r="B58" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="12"/>
     </row>
     <row r="59" spans="1:5">
       <c r="B59" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="12"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C59" s="12"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="7" t="s">
+      <c r="C60" s="12"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B61" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="12"/>
-    </row>
-    <row r="61" spans="1:5" ht="27">
-      <c r="B61" s="22" t="s">
+      <c r="C61" s="12"/>
+    </row>
+    <row r="62" spans="1:5" ht="27">
+      <c r="B62" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>240</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E62" s="8" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="B62" s="7" t="s">
+    <row r="63" spans="1:5">
+      <c r="B63" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="27">
-      <c r="A63" s="7" t="s">
+    <row r="64" spans="1:5" ht="27">
+      <c r="A64" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B64" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D64" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E63" s="24" t="s">
+      <c r="E64" s="24" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="B64" s="12" t="s">
+    <row r="65" spans="1:6">
+      <c r="B65" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="12"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="7" t="s">
+      <c r="C65" s="12"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B66" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="B66" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="C66" s="21" t="s">
         <v>273</v>
       </c>
       <c r="D66" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="B67" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="7" t="s">
+    <row r="68" spans="1:6">
+      <c r="A68" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B68" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="12"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="B68" s="7" t="s">
+      <c r="C68" s="12"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="B69" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D69" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="7" t="s">
+    <row r="70" spans="1:6">
+      <c r="A70" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B70" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D70" s="7" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="B70" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="B71" s="7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="B72" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>273</v>
       </c>
       <c r="D72" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="B73" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="B73" s="12" t="s">
+    <row r="74" spans="1:6">
+      <c r="B74" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="C73" s="12"/>
-    </row>
-    <row r="74" spans="1:6" ht="27">
-      <c r="A74" s="7" t="s">
+      <c r="C74" s="12"/>
+    </row>
+    <row r="75" spans="1:6" ht="27">
+      <c r="A75" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B75" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>200</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E75" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F75" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="B75" s="23" t="s">
+    <row r="76" spans="1:6">
+      <c r="B76" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="B76" s="7" t="s">
+    <row r="77" spans="1:6">
+      <c r="B77" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D77" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="9" t="s">
+    <row r="79" spans="1:6">
+      <c r="A79" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B79" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17" t="s">
+      <c r="C79" s="17"/>
+      <c r="D79" s="17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="27">
-      <c r="A79" s="8" t="s">
+    <row r="80" spans="1:6" ht="27">
+      <c r="A80" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B80" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D80" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E80" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="B80" s="12" t="s">
+    <row r="81" spans="1:4">
+      <c r="B81" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="7" t="s">
+      <c r="C81" s="12"/>
+      <c r="D81" s="7" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>272</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>244</v>
+        <v>159</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>272</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:4">
+      <c r="A84" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="B84" s="7" t="s">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>272</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="B85" s="7" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>272</v>
       </c>
       <c r="D85" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="B86" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="7" t="s">
+    <row r="87" spans="1:4">
+      <c r="A87" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B87" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="7" t="s">
+      <c r="C87" s="12"/>
+      <c r="D87" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="B87" s="7" t="s">
+    <row r="88" spans="1:4">
+      <c r="B88" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B91" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="B91" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="7" t="s">
+      <c r="B92" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B93" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C92" s="12"/>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="B93" s="12" t="s">
+      <c r="C93" s="12"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="B94" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C93" s="12"/>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>257</v>
-      </c>
+      <c r="C94" s="12"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="7" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>272</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:4">
+      <c r="A96" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="B96" s="7" t="s">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>272</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="B97" s="7" t="s">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>272</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B99" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="B99" s="7" t="s">
+    <row r="100" spans="1:4">
+      <c r="B100" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D100" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="7" t="s">
+    <row r="101" spans="1:4">
+      <c r="A101" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B101" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D101" t="s">
         <v>278</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G100">
+  <autoFilter ref="A1:G101">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="2"/>
   </autoFilter>
@@ -3672,7 +3729,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3774,7 +3831,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3892,4 +3949,46 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/IT_space.xlsx
+++ b/IT_space.xlsx
@@ -3956,7 +3956,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/IT_space.xlsx
+++ b/IT_space.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="地图" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="322">
   <si>
     <t>服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1234,23 +1234,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天行者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川斯盖克科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skyker  -   Skywalker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斯盖克</t>
+    <t>移动互联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网金融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>watchOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cocoa(OS X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cocoa Touch(iOS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Betago</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝塔狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川贝塔狗科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向google的alghago团队致敬；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta：永远的测试版，意味创新；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go: 狗，忠诚，人类友好；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.betago.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资本10万元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumPy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.numpy.org/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.androiddevtools.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1460,7 +1521,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1535,6 +1596,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1837,14 +1904,14 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="17.25" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="4" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.625" style="4" customWidth="1"/>
     <col min="6" max="6" width="15" style="4" bestFit="1" customWidth="1"/>
@@ -2577,6 +2644,17 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
+    <row r="41" spans="1:9">
+      <c r="B41" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
     <row r="42" spans="1:9" ht="12.75">
       <c r="B42" s="19"/>
     </row>
@@ -2589,11 +2667,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2609,10 +2687,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="18" customFormat="1" ht="14.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="18" t="s">
         <v>270</v>
       </c>
@@ -3708,6 +3786,20 @@
       </c>
       <c r="D101" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D102" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3726,10 +3818,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3819,10 +3911,18 @@
         <v>188</v>
       </c>
     </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="26" t="s">
+        <v>321</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A17" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3831,7 +3931,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3953,42 +4053,78 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7">
+      <c r="G2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" t="s">
         <v>304</v>
       </c>
-      <c r="B2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G5" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="E2" t="s">
-        <v>303</v>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="26" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/IT_space.xlsx
+++ b/IT_space.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="地图" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="331">
   <si>
     <t>服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1311,6 +1311,39 @@
   </si>
   <si>
     <t>http://www.androiddevtools.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.intorobot.com/</t>
+  </si>
+  <si>
+    <t>https://www.arduino.cc/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradle </t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>Maven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groovy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1901,10 +1934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2645,6 +2678,9 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9">
+      <c r="A41" s="4" t="s">
+        <v>328</v>
+      </c>
       <c r="B41" s="4" t="s">
         <v>307</v>
       </c>
@@ -2656,7 +2692,26 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="12.75">
-      <c r="B42" s="19"/>
+      <c r="A42" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>329</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2670,8 +2725,8 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3818,10 +3873,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3916,13 +3971,24 @@
         <v>321</v>
       </c>
     </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="26" t="s">
+        <v>323</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A17" r:id="rId1"/>
+    <hyperlink ref="A20" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3931,7 +3997,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4053,10 +4119,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4119,6 +4185,12 @@
         <v>315</v>
       </c>
     </row>
+    <row r="13" spans="1:7">
+      <c r="C13">
+        <f>5*6</f>
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/IT_space.xlsx
+++ b/IT_space.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="地图" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="公司" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">详情!$A$1:$G$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">详情!$A$1:$G$102</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="347">
   <si>
     <t>服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1345,6 +1345,63 @@
   <si>
     <t>脚本语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gradle.org/</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUnit,</t>
+  </si>
+  <si>
+    <t>TestNG</t>
+  </si>
+  <si>
+    <t>Spock</t>
+  </si>
+  <si>
+    <t>Groovy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scala</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ant+Ivy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clojure</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scala</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grails</t>
+  </si>
+  <si>
+    <t>WEB框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ebooks-it.org</t>
   </si>
 </sst>
 </file>
@@ -1612,9 +1669,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1634,6 +1688,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1934,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1953,7 +2010,7 @@
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="A1" s="5" t="s">
         <v>119</v>
       </c>
@@ -1967,8 +2024,13 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>12</v>
@@ -1982,8 +2044,13 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -2009,8 +2076,23 @@
       <c r="I3" s="5" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
         <v>93</v>
       </c>
@@ -2028,8 +2110,13 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
         <v>95</v>
       </c>
@@ -2049,8 +2136,13 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -2074,8 +2166,13 @@
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="5" t="s">
         <v>51</v>
       </c>
@@ -2089,8 +2186,13 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
@@ -2112,10 +2214,15 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" ht="13.5">
       <c r="A9" s="5" t="s">
-        <v>136</v>
+        <v>345</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>22</v>
@@ -2135,10 +2242,17 @@
       <c r="G9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" t="s">
+        <v>344</v>
+      </c>
       <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -2158,8 +2272,13 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="5" t="s">
         <v>137</v>
       </c>
@@ -2173,8 +2292,13 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="5" t="s">
         <v>139</v>
       </c>
@@ -2190,8 +2314,13 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="5" t="s">
         <v>142</v>
       </c>
@@ -2205,8 +2334,13 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -2226,8 +2360,13 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -2243,8 +2382,13 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
@@ -2264,8 +2408,13 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
@@ -2283,8 +2432,13 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -2304,8 +2458,13 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
@@ -2325,8 +2484,13 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -2346,8 +2510,13 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
@@ -2363,8 +2532,13 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="5" t="s">
         <v>262</v>
       </c>
@@ -2380,8 +2554,13 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="5" t="s">
         <v>41</v>
       </c>
@@ -2397,8 +2576,13 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="5" t="s">
         <v>48</v>
       </c>
@@ -2420,8 +2604,13 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="5" t="s">
         <v>150</v>
       </c>
@@ -2437,8 +2626,13 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
@@ -2452,8 +2646,13 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="5" t="s">
         <v>153</v>
       </c>
@@ -2469,8 +2668,13 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="5" t="s">
         <v>156</v>
       </c>
@@ -2484,8 +2688,13 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="5" t="s">
         <v>158</v>
       </c>
@@ -2499,8 +2708,13 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="5" t="s">
         <v>160</v>
       </c>
@@ -2516,18 +2730,23 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="19" t="s">
         <v>253</v>
       </c>
       <c r="E31" s="5"/>
@@ -2535,8 +2754,13 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="5" t="s">
         <v>166</v>
       </c>
@@ -2550,8 +2774,13 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="5" t="s">
         <v>168</v>
       </c>
@@ -2565,8 +2794,13 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="5" t="s">
         <v>63</v>
       </c>
@@ -2582,8 +2816,13 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="5" t="s">
         <v>66</v>
       </c>
@@ -2599,8 +2838,13 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="5" t="s">
         <v>57</v>
       </c>
@@ -2614,8 +2858,13 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="5" t="s">
         <v>74</v>
       </c>
@@ -2631,8 +2880,13 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="5" t="s">
         <v>75</v>
       </c>
@@ -2646,8 +2900,13 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="5" t="s">
         <v>176</v>
       </c>
@@ -2661,8 +2920,13 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="5" t="s">
         <v>299</v>
       </c>
@@ -2676,42 +2940,101 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="4" t="s">
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="5" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="12.75">
-      <c r="A42" s="4" t="s">
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="1:14" ht="12.75">
+      <c r="A42" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="5" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="4" t="s">
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="5" t="s">
         <v>329</v>
       </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2722,11 +3045,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2837,7 +3160,7 @@
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>272</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2851,7 +3174,7 @@
       <c r="B10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>273</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -2862,7 +3185,7 @@
       <c r="B11" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
@@ -2882,7 +3205,7 @@
       <c r="B13" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>273</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -2927,7 +3250,7 @@
       <c r="B17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>273</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -2946,7 +3269,7 @@
       <c r="B19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>273</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -2985,7 +3308,7 @@
       <c r="B22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>273</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -3029,7 +3352,7 @@
       <c r="B26" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>273</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -3040,7 +3363,7 @@
       <c r="B27" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="20"/>
       <c r="D27" t="s">
         <v>285</v>
       </c>
@@ -3074,7 +3397,7 @@
       <c r="B30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>272</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -3099,7 +3422,7 @@
       <c r="B32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>271</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -3110,7 +3433,7 @@
       <c r="B33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>273</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -3121,7 +3444,7 @@
       <c r="B34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>272</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -3132,7 +3455,7 @@
       <c r="B35" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="20" t="s">
         <v>273</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -3221,7 +3544,7 @@
       <c r="B44" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="20" t="s">
         <v>273</v>
       </c>
       <c r="D44" s="7" t="s">
@@ -3241,7 +3564,7 @@
       <c r="B46" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="20" t="s">
         <v>273</v>
       </c>
       <c r="D46" s="7" t="s">
@@ -3263,7 +3586,7 @@
       <c r="B48" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>273</v>
       </c>
       <c r="D48" s="7" t="s">
@@ -3401,7 +3724,7 @@
       <c r="C61" s="12"/>
     </row>
     <row r="62" spans="1:5" ht="27">
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -3429,7 +3752,7 @@
       <c r="A64" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C64" s="7" t="s">
@@ -3438,7 +3761,7 @@
       <c r="D64" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E64" s="24" t="s">
+      <c r="E64" s="23" t="s">
         <v>289</v>
       </c>
     </row>
@@ -3447,6 +3770,9 @@
         <v>61</v>
       </c>
       <c r="C65" s="12"/>
+      <c r="E65" s="7" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="7" t="s">
@@ -3455,7 +3781,7 @@
       <c r="B66" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="20" t="s">
         <v>273</v>
       </c>
       <c r="D66" s="7" t="s">
@@ -3466,399 +3792,410 @@
       <c r="B67" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C67" s="21" t="s">
-        <v>273</v>
+      <c r="C67" s="20" t="s">
+        <v>339</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="7" t="s">
+      <c r="B68" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B69" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="12"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="B69" s="7" t="s">
+      <c r="C69" s="12"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="B70" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D70" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="7" t="s">
+    <row r="71" spans="1:6">
+      <c r="A71" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B71" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D71" s="7" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="B71" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="B72" s="7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="B73" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>273</v>
       </c>
       <c r="D73" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="B74" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="B74" s="12" t="s">
+    <row r="75" spans="1:6">
+      <c r="B75" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="C74" s="12"/>
-    </row>
-    <row r="75" spans="1:6" ht="27">
-      <c r="A75" s="7" t="s">
+      <c r="C75" s="12"/>
+    </row>
+    <row r="76" spans="1:6" ht="27">
+      <c r="A76" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B76" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>200</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E76" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F76" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="B76" s="23" t="s">
+    <row r="77" spans="1:6">
+      <c r="B77" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="B77" s="7" t="s">
+    <row r="78" spans="1:6">
+      <c r="B78" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D78" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="9" t="s">
+    <row r="80" spans="1:6">
+      <c r="A80" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="17" t="s">
+      <c r="B80" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17" t="s">
+      <c r="C80" s="17"/>
+      <c r="D80" s="17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="27">
-      <c r="A80" s="8" t="s">
+    <row r="81" spans="1:5" ht="27">
+      <c r="A81" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B81" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D81" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E81" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="B81" s="12" t="s">
+    <row r="82" spans="1:5">
+      <c r="B82" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="7" t="s">
+      <c r="C82" s="12"/>
+      <c r="D82" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="7" t="s">
+    <row r="83" spans="1:5">
+      <c r="A83" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B83" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>272</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>244</v>
+        <v>159</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>272</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="B85" s="7" t="s">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>272</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="B86" s="7" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>272</v>
       </c>
       <c r="D86" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="B87" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="7" t="s">
+    <row r="88" spans="1:5">
+      <c r="A88" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B88" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="7" t="s">
+      <c r="C88" s="12"/>
+      <c r="D88" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="B88" s="7" t="s">
+    <row r="89" spans="1:5">
+      <c r="B89" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="7" t="s">
+    <row r="90" spans="1:5">
+      <c r="A90" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B90" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D90" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="7" t="s">
+    <row r="91" spans="1:5">
+      <c r="A91" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B91" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="7" t="s">
+    <row r="92" spans="1:5">
+      <c r="A92" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B92" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="B92" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="7" t="s">
+    <row r="93" spans="1:5">
+      <c r="B93" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B94" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C93" s="12"/>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="B94" s="12" t="s">
+      <c r="C94" s="12"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="B95" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C94" s="12"/>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="7" t="s">
+      <c r="C95" s="12"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B96" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>272</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:4">
+      <c r="A97" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="B97" s="7" t="s">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>272</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="B98" s="7" t="s">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>272</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B100" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="B100" s="7" t="s">
+    <row r="101" spans="1:4">
+      <c r="B101" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D101" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D101" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D102" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B103" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C103" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D103" t="s">
         <v>320</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G101">
+  <autoFilter ref="A1:G102">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="2"/>
   </autoFilter>
@@ -3873,10 +4210,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3967,7 +4304,7 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>321</v>
       </c>
     </row>
@@ -3977,8 +4314,13 @@
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -4152,7 +4494,7 @@
       <c r="E3" t="s">
         <v>311</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4171,7 +4513,7 @@
       <c r="A5" t="s">
         <v>313</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4181,7 +4523,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>315</v>
       </c>
     </row>

--- a/IT_space.xlsx
+++ b/IT_space.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="地图" sheetId="1" r:id="rId1"/>
     <sheet name="详情" sheetId="5" r:id="rId2"/>
     <sheet name="网站" sheetId="2" r:id="rId3"/>
     <sheet name="互联网架构师" sheetId="4" r:id="rId4"/>
-    <sheet name="公司" sheetId="6" r:id="rId5"/>
+    <sheet name="事务" sheetId="7" r:id="rId5"/>
+    <sheet name="公司" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">详情!$A$1:$G$102</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="376">
   <si>
     <t>服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1403,12 +1404,127 @@
   <si>
     <t>https://ebooks-it.org</t>
   </si>
+  <si>
+    <t>虚拟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VMWare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.virtualbox.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VirtualBox </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mesos</t>
+  </si>
+  <si>
+    <t>http://mesos.apache.org/</t>
+  </si>
+  <si>
+    <t>开源分布式资源管理框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enterprise Virtualization Platform (VMware, KVM, etc.)</t>
+  </si>
+  <si>
+    <t>Cloud Platform (Openstack, CloudStack, etc.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configuration Management (Puppet, Chef, etc.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deployment Framework (Capistrano, Fabric, etc.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workload Management Tool (Mesos, Fleet, etc.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Development Environment (Vagrant, etc.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业发展方向；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语听力，口语，单词，阅读，写作；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoapUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fitnesse/Fixture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selenium Webdriver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HtmlUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SanarQube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findbugs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaMelody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Junit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OWASP(报告)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏洞扫描工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link爬虫工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+  <numFmts count="1">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+  </numFmts>
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1480,15 +1596,6 @@
     <font>
       <strike/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -1645,9 +1752,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1660,10 +1764,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1681,16 +1785,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1991,26 +2098,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18" style="4" customWidth="1"/>
     <col min="6" max="6" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="4"/>
+    <col min="8" max="8" width="10.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9" style="4"/>
+    <col min="11" max="11" width="10.25" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="5" t="s">
         <v>119</v>
       </c>
@@ -2029,8 +2141,9 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>12</v>
@@ -2049,8 +2162,9 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -2091,8 +2205,9 @@
       <c r="N3" s="5" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="5" t="s">
         <v>93</v>
       </c>
@@ -2115,8 +2230,9 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="5" t="s">
         <v>95</v>
       </c>
@@ -2141,8 +2257,9 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -2164,15 +2281,18 @@
       <c r="G6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="H6" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="I6" s="10"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="5" t="s">
         <v>51</v>
       </c>
@@ -2191,8 +2311,9 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
@@ -2219,8 +2340,9 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" ht="13.5">
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" ht="13.5">
       <c r="A9" s="5" t="s">
         <v>345</v>
       </c>
@@ -2251,8 +2373,9 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -2277,8 +2400,9 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="5" t="s">
         <v>137</v>
       </c>
@@ -2297,15 +2421,16 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>141</v>
       </c>
       <c r="D12" s="5"/>
@@ -2319,8 +2444,9 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="5" t="s">
         <v>142</v>
       </c>
@@ -2339,8 +2465,9 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -2365,8 +2492,9 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -2387,8 +2515,9 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2542,9 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
@@ -2437,8 +2567,9 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -2463,8 +2594,9 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
@@ -2489,8 +2621,9 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -2515,8 +2648,9 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
@@ -2537,8 +2671,9 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="5" t="s">
         <v>262</v>
       </c>
@@ -2559,8 +2694,9 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="5" t="s">
         <v>41</v>
       </c>
@@ -2581,8 +2717,9 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="5" t="s">
         <v>48</v>
       </c>
@@ -2609,8 +2746,9 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="5" t="s">
         <v>150</v>
       </c>
@@ -2631,8 +2769,9 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
@@ -2651,8 +2790,9 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="5" t="s">
         <v>153</v>
       </c>
@@ -2673,8 +2813,9 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="5" t="s">
         <v>156</v>
       </c>
@@ -2693,8 +2834,9 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="5" t="s">
         <v>158</v>
       </c>
@@ -2713,8 +2855,9 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="5" t="s">
         <v>160</v>
       </c>
@@ -2735,18 +2878,19 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>253</v>
       </c>
       <c r="E31" s="5"/>
@@ -2759,8 +2903,9 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="5" t="s">
         <v>166</v>
       </c>
@@ -2779,8 +2924,9 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="5" t="s">
         <v>168</v>
       </c>
@@ -2799,8 +2945,9 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="5" t="s">
         <v>63</v>
       </c>
@@ -2821,8 +2968,9 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="5" t="s">
         <v>66</v>
       </c>
@@ -2843,8 +2991,9 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="5" t="s">
         <v>57</v>
       </c>
@@ -2863,8 +3012,9 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="5" t="s">
         <v>74</v>
       </c>
@@ -2885,8 +3035,9 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37" s="5"/>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="5" t="s">
         <v>75</v>
       </c>
@@ -2905,8 +3056,9 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="5" t="s">
         <v>176</v>
       </c>
@@ -2925,8 +3077,9 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39" s="5"/>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="5" t="s">
         <v>299</v>
       </c>
@@ -2945,8 +3098,9 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40" s="5"/>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="5" t="s">
         <v>328</v>
       </c>
@@ -2969,12 +3123,13 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
-    </row>
-    <row r="42" spans="1:14" ht="12.75">
+      <c r="O41" s="5"/>
+    </row>
+    <row r="42" spans="1:15" ht="12.75">
       <c r="A42" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="25" t="s">
         <v>327</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -2993,8 +3148,9 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42" s="5"/>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="5" t="s">
         <v>330</v>
       </c>
@@ -3013,8 +3169,9 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43" s="5"/>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="5"/>
       <c r="B44" s="5" t="s">
         <v>334</v>
@@ -3035,6 +3192,70 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="O45" s="5"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="B46" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3045,16 +3266,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="7" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.375" style="7" customWidth="1"/>
     <col min="3" max="3" width="7.875" style="7" customWidth="1"/>
     <col min="4" max="4" width="48.75" style="7" customWidth="1"/>
@@ -3064,24 +3285,24 @@
     <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="18" customFormat="1" ht="14.25">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="14.25">
       <c r="A1" s="27" t="s">
         <v>121</v>
       </c>
       <c r="B1" s="27"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3160,7 +3381,7 @@
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>272</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -3174,7 +3395,7 @@
       <c r="B10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>273</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -3185,7 +3406,7 @@
       <c r="B11" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
@@ -3205,7 +3426,7 @@
       <c r="B13" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>273</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -3250,7 +3471,7 @@
       <c r="B17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>273</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -3269,7 +3490,7 @@
       <c r="B19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>273</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -3308,7 +3529,7 @@
       <c r="B22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>273</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -3338,10 +3559,10 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>272</v>
       </c>
       <c r="D25" t="s">
@@ -3352,7 +3573,7 @@
       <c r="B26" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>273</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -3363,7 +3584,7 @@
       <c r="B27" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="19"/>
       <c r="D27" t="s">
         <v>285</v>
       </c>
@@ -3397,7 +3618,7 @@
       <c r="B30" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="19" t="s">
         <v>272</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -3422,7 +3643,7 @@
       <c r="B32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="19" t="s">
         <v>271</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -3433,7 +3654,7 @@
       <c r="B33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="19" t="s">
         <v>273</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -3444,7 +3665,7 @@
       <c r="B34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="19" t="s">
         <v>272</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -3455,7 +3676,7 @@
       <c r="B35" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="19" t="s">
         <v>273</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -3466,34 +3687,34 @@
       <c r="A36" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="12"/>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="12"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="12"/>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C39" s="12"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="7" t="s">
@@ -3532,10 +3753,10 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="14"/>
+      <c r="C43" s="13"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="7" t="s">
@@ -3544,7 +3765,7 @@
       <c r="B44" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="19" t="s">
         <v>273</v>
       </c>
       <c r="D44" s="7" t="s">
@@ -3552,10 +3773,10 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="15"/>
+      <c r="C45" s="14"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="7" t="s">
@@ -3564,7 +3785,7 @@
       <c r="B46" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="19" t="s">
         <v>273</v>
       </c>
       <c r="D46" s="7" t="s">
@@ -3586,7 +3807,7 @@
       <c r="B48" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="19" t="s">
         <v>273</v>
       </c>
       <c r="D48" s="7" t="s">
@@ -3594,10 +3815,10 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C49" s="14"/>
+      <c r="C49" s="13"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="7" t="s">
@@ -3697,34 +3918,34 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="12"/>
+      <c r="C58" s="11"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="12"/>
+      <c r="C59" s="11"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C60" s="12"/>
+      <c r="C60" s="11"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="12"/>
+      <c r="C61" s="11"/>
     </row>
     <row r="62" spans="1:5" ht="27">
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -3752,7 +3973,7 @@
       <c r="A64" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C64" s="7" t="s">
@@ -3761,15 +3982,15 @@
       <c r="D64" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E64" s="23" t="s">
+      <c r="E64" s="22" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="12"/>
+      <c r="C65" s="11"/>
       <c r="E65" s="7" t="s">
         <v>340</v>
       </c>
@@ -3781,7 +4002,7 @@
       <c r="B66" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="19" t="s">
         <v>273</v>
       </c>
       <c r="D66" s="7" t="s">
@@ -3792,10 +4013,10 @@
       <c r="B67" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" t="s">
         <v>267</v>
       </c>
     </row>
@@ -3803,7 +4024,7 @@
       <c r="B68" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="19" t="s">
         <v>332</v>
       </c>
       <c r="D68" s="7" t="s">
@@ -3814,10 +4035,10 @@
       <c r="A69" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C69" s="12"/>
+      <c r="C69" s="11"/>
     </row>
     <row r="70" spans="1:6">
       <c r="B70" s="7" t="s">
@@ -3878,16 +4099,16 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C75" s="12"/>
+      <c r="C75" s="11"/>
     </row>
     <row r="76" spans="1:6" ht="27">
       <c r="A76" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="21" t="s">
         <v>283</v>
       </c>
       <c r="C76" s="7" t="s">
@@ -3904,7 +4125,7 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="21" t="s">
         <v>281</v>
       </c>
       <c r="D77" t="s">
@@ -3926,11 +4147,11 @@
       <c r="A80" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17" t="s">
+      <c r="C80" s="16"/>
+      <c r="D80" s="16" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3949,10 +4170,10 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C82" s="12"/>
+      <c r="C82" s="11"/>
       <c r="D82" s="7" t="s">
         <v>180</v>
       </c>
@@ -4025,10 +4246,10 @@
       <c r="A88" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C88" s="12"/>
+      <c r="C88" s="11"/>
       <c r="D88" s="7" t="s">
         <v>254</v>
       </c>
@@ -4089,16 +4310,16 @@
       <c r="A94" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C94" s="12"/>
+      <c r="C94" s="11"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C95" s="12"/>
+      <c r="C95" s="11"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="7" t="s">
@@ -4192,6 +4413,63 @@
       </c>
       <c r="D103" t="s">
         <v>320</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="B105" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="D107" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="D108" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="D109" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="D110" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="D111" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="D112" s="7" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -4210,10 +4488,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4303,25 +4581,28 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="24" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="25" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="24" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>346</v>
       </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4461,6 +4742,47 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="2" max="2" width="45.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4494,7 +4816,7 @@
       <c r="E3" t="s">
         <v>311</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4513,7 +4835,7 @@
       <c r="A5" t="s">
         <v>313</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4523,7 +4845,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>315</v>
       </c>
     </row>
